--- a/Question_Set2/Role-specific skills/Data Extraction, Transformation, and Loading (ETL).xlsx
+++ b/Question_Set2/Role-specific skills/Data Extraction, Transformation, and Loading (ETL).xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are a data engineer at a multinational company that collects data from multiple sources like IoT devices, social media, and internal databases. The data varies in format from structured to unstructured types, and you need to set up an ETL architecture for it.Which ETL architecture should you use?', 'ques_type': 2, 'options': ['Single tier', 'Two-tier', 'On-premises', 'Off-premises'], 'score': 'Two-tier'}, {'title': 'You are a data engineer managing an ETL process for an e-commerce company. Recently, the transformation stage of the ETL process has been taking a significantly longer amount of time due to increased data volume and complexity. You have been tasked with improving the performance of this step. What should you do?', 'ques_type': 2, 'options': ['Simplify or optimize the transformation logic.', 'Increase the network bandwidth.', 'Upgrade the storage capacity of the data warehouse.', 'Reschedule ETL processes to avoid competition.'], 'score': 'Simplify or optimize the transformation logic.'}, {'title': "The performance of your organization's data pipeline has recently had significant degradation, affecting the overall data processing speed. After investigating, you suspect the problem might lie in the data transformation phase. What should you do?", 'ques_type': 2, 'options': ['Increase the processing power of the system.', 'Profile the transformation operations.', 'Redefine the transformation operations.', 'Delete old records.'], 'score': 'Profile the transformation operations.'}, {'title': 'You have been tasked with designing a failure recovery strategy for your company’s ETL pipeline. The pipeline handles multiple large datasets and performs a series of complex transformations. Which of the following is the best general solution?', 'ques_type': 2, 'options': ['Update the ETL software regularly.', 'Implement a checkpoint mechanism.', 'Use high-performance hardware.', 'Use additional computational resources during peak hours.'], 'score': 'Implement a checkpoint mechanism.'}]</t>
+    <t>questions = [
+    {
+        "title": "You are a data engineer at a multinational company that collects data from multiple sources like IoT devices, social media, and internal databases. The data varies in format from structured to unstructured types, and you need to set up an ETL architecture for it.Which ETL architecture should you use?",
+        "ques_type": 2,
+        "options": [
+            "Single tier",
+            "Two-tier",
+            "On-premises",
+            "Off-premises"
+        ],
+        "score": "Two-tier"
+    },
+    {
+        "title": "You are a data engineer managing an ETL process for an e-commerce company. Recently, the transformation stage of the ETL process has been taking a significantly longer amount of time due to increased data volume and complexity. You have been tasked with improving the performance of this step. What should you do?",
+        "ques_type": 2,
+        "options": [
+            "Simplify or optimize the transformation logic.",
+            "Increase the network bandwidth.",
+            "Upgrade the storage capacity of the data warehouse.",
+            "Reschedule ETL processes to avoid competition."
+        ],
+        "score": "Simplify or optimize the transformation logic."
+    },
+    {
+        "title": "The performance of your organization's data pipeline has recently had significant degradation, affecting the overall data processing speed. After investigating, you suspect the problem might lie in the data transformation phase. What should you do?",
+        "ques_type": 2,
+        "options": [
+            "Increase the processing power of the system.",
+            "Profile the transformation operations.",
+            "Redefine the transformation operations.",
+            "Delete old records."
+        ],
+        "score": "Profile the transformation operations."
+    },
+    {
+        "title": "You have been tasked with designing a failure recovery strategy for your company\u2019s ETL pipeline. The pipeline handles multiple large datasets and performs a series of complex transformations. Which of the following is the best general solution?",
+        "ques_type": 2,
+        "options": [
+            "Update the ETL software regularly.",
+            "Implement a checkpoint mechanism.",
+            "Use high-performance hardware.",
+            "Use additional computational resources during peak hours."
+        ],
+        "score": "Implement a checkpoint mechanism."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
